--- a/Docs/Corvin/Datenkatalog.xlsx
+++ b/Docs/Corvin/Datenkatalog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Corvin\Documents\Workspace\InfoSys\InfoSys-Lab\Docs\Corvin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Benutzer\Tobi\Dokumente HDD\Hochschule Esslingen\Semester 6\Informationssysteme\InfoSys-Lab\Docs\Corvin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9048" activeTab="2" xr2:uid="{E803401E-A4EF-4570-A50D-C854970A0028}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
   <si>
     <t>Name</t>
   </si>
@@ -172,61 +172,171 @@
     <t>kann … anbieten</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Vorname, Nachname, Titel, </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Prüfernummer</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, HSWS, Kontakt</t>
-    </r>
-  </si>
-  <si>
-    <t>Name, Kürzel</t>
-  </si>
-  <si>
-    <t>Thema, Termine</t>
-  </si>
-  <si>
-    <t>Raumnummer, Gebäude, Standort</t>
-  </si>
-  <si>
-    <t>Name, Abschluss, SPO (Welche Fächer in welchem Semester)</t>
-  </si>
-  <si>
-    <t>Zahl (SWB 6)</t>
+    <t>Nachname</t>
+  </si>
+  <si>
+    <t>Titel</t>
+  </si>
+  <si>
+    <t>Prüfernummer</t>
+  </si>
+  <si>
+    <t>HSWS</t>
+  </si>
+  <si>
+    <t>Kontakt</t>
+  </si>
+  <si>
+    <t>Vorname</t>
+  </si>
+  <si>
+    <t>Kürzel</t>
+  </si>
+  <si>
+    <t>Thema</t>
+  </si>
+  <si>
+    <t>Termine</t>
+  </si>
+  <si>
+    <t>Raumnummer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gebäude </t>
+  </si>
+  <si>
+    <t>Standort</t>
+  </si>
+  <si>
+    <t>Abschluss</t>
+  </si>
+  <si>
+    <t>SPO</t>
+  </si>
+  <si>
+    <t>Zahl (SWB6)</t>
+  </si>
+  <si>
+    <t>not nullable</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>String (20)</t>
+  </si>
+  <si>
+    <t>Familiennamen des Lehrbeauftragten</t>
+  </si>
+  <si>
+    <t>Vorname des Lehrbeauftragten</t>
+  </si>
+  <si>
+    <t>String (50)</t>
+  </si>
+  <si>
+    <t>nullable</t>
+  </si>
+  <si>
+    <t>z.B. Prof. Dr. rer. nat. oder ähnliches</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>int(10)</t>
+  </si>
+  <si>
+    <t>von der Hochschule zugeteilte Nummer</t>
+  </si>
+  <si>
+    <t>Anzahl der SWS in dem aktuellen Semester</t>
+  </si>
+  <si>
+    <t>int(2)</t>
+  </si>
+  <si>
+    <t>Email? Telefonnummer? ?????</t>
+  </si>
+  <si>
+    <t>yes ?????</t>
+  </si>
+  <si>
+    <t>no ?????</t>
+  </si>
+  <si>
+    <t>String(50)</t>
+  </si>
+  <si>
+    <t>Anzahl der verlangten SWS im aktuellen Semester</t>
+  </si>
+  <si>
+    <t>String(10)</t>
+  </si>
+  <si>
+    <t>Name der Fakultät</t>
+  </si>
+  <si>
+    <t>Kürzel der Fakultät</t>
+  </si>
+  <si>
+    <t>Standort des Raums (G, F, S)</t>
+  </si>
+  <si>
+    <t>Gebäude am Standort (1,2,…)</t>
+  </si>
+  <si>
+    <t>Raumnummer (311,217,…)</t>
+  </si>
+  <si>
+    <t>String(1) oder String (10) (voller Name) ?????</t>
+  </si>
+  <si>
+    <t>int(1)</t>
+  </si>
+  <si>
+    <t>int(3)</t>
+  </si>
+  <si>
+    <t>Studien- und Prüfungsordnungen</t>
+  </si>
+  <si>
+    <t>Name des Studiengangs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bachelor of Science/Engineering… </t>
+  </si>
+  <si>
+    <t>String (30)</t>
+  </si>
+  <si>
+    <t>Semester eines Studiengangs</t>
+  </si>
+  <si>
+    <t>String(5)</t>
+  </si>
+  <si>
+    <t>Das Thema, um das die Vorlesung sich dreht</t>
+  </si>
+  <si>
+    <t>String (100)</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>????? Dates?</t>
+  </si>
+  <si>
+    <t>yes?????</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -572,20 +682,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECD8DCA7-DA41-40BF-B5C1-8DEDF0268017}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="59.21875" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -607,7 +717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -618,7 +728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -626,7 +736,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -634,7 +744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -642,7 +752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -650,7 +760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -658,7 +768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>27</v>
       </c>
@@ -666,7 +776,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -674,12 +784,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>45</v>
       </c>
@@ -690,24 +800,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6142A7-1ADB-455F-9670-49326EA9C958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" style="1"/>
-    <col min="3" max="3" width="24.44140625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="11.5546875" style="1"/>
-    <col min="6" max="6" width="30.109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="15.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="1"/>
+    <col min="3" max="3" width="24.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.5703125" style="1"/>
+    <col min="6" max="6" width="30.140625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,7 +837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -747,7 +857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -764,7 +874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -784,7 +894,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -804,7 +914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -818,7 +928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -832,7 +942,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -855,20 +965,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9BD0CF-030D-43F1-9905-A42E57336BDF}">
-  <dimension ref="A1:H9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="4" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -894,65 +1005,439 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>22</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" t="s">
+        <v>64</v>
+      </c>
+      <c r="G6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" t="s">
+        <v>71</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" t="s">
+        <v>64</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>64</v>
+      </c>
+      <c r="G16" t="s">
+        <v>71</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
-        <v>53</v>
+      <c r="B19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/Docs/Corvin/Datenkatalog.xlsx
+++ b/Docs/Corvin/Datenkatalog.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Benutzer\Tobi\Dokumente HDD\Hochschule Esslingen\Semester 6\Informationssysteme\InfoSys-Lab\Docs\Corvin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Desktop\hs-esslingen\Unterrichtsfächer\7. Semester\Infosys\GitRepo\InfoSys-Lab\Docs\Corvin\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9045"/>
   </bookViews>
   <sheets>
     <sheet name="Entity" sheetId="1" r:id="rId1"/>
     <sheet name="Relations" sheetId="2" r:id="rId2"/>
     <sheet name="Attributes" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="102">
   <si>
     <t>Name</t>
   </si>
@@ -329,6 +329,9 @@
   </si>
   <si>
     <t>yes?????</t>
+  </si>
+  <si>
+    <t>Muss eine Historie für Professoren geführt werden, in welchem Semester Sie wie viele SWS geleistet haben?</t>
   </si>
 </sst>
 </file>
@@ -683,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,6 +795,11 @@
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -968,7 +976,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
